--- a/biology/Médecine/Éminence_pyramidale/Éminence_pyramidale.xlsx
+++ b/biology/Médecine/Éminence_pyramidale/Éminence_pyramidale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89minence_pyramidale</t>
+          <t>Éminence_pyramidale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'éminence pyramidale (ou pyramide de la caisse du tympan) est une saillie conique située sur la paroi postérieure de la cavité tympanique dans l'oreille moyenne.
 Elle est située immédiatement en arrière de la fenêtre du vestibule et en avant de la portion verticale du canal du nerf facial.
